--- a/data/월별요인들.xlsx
+++ b/data/월별요인들.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,27 +34,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>폭염일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체감온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미세먼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>평균기온(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>최저기온(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>최고기온(℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강수량(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>황사일수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭염일수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체감온도</t>
+    <t>경복궁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,28 +417,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,8 +475,17 @@
       <c r="I2">
         <v>-6.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>100.45</v>
+      </c>
+      <c r="L2">
+        <v>124211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,8 +513,17 @@
       <c r="I3">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>101.87</v>
+      </c>
+      <c r="L3">
+        <v>197756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -508,8 +551,17 @@
       <c r="I4">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>101.56</v>
+      </c>
+      <c r="L4">
+        <v>220494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -537,8 +589,17 @@
       <c r="I5">
         <v>12.59</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>103.14</v>
+      </c>
+      <c r="L5">
+        <v>341280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,8 +627,17 @@
       <c r="I6">
         <v>12.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>103.33</v>
+      </c>
+      <c r="L6">
+        <v>407217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -595,8 +665,17 @@
       <c r="I7">
         <v>23.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>101.41</v>
+      </c>
+      <c r="L7">
+        <v>279530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -624,8 +703,17 @@
       <c r="I8">
         <v>27.76</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>103.05</v>
+      </c>
+      <c r="L8">
+        <v>200582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -653,8 +741,17 @@
       <c r="I9">
         <v>28.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>103.81</v>
+      </c>
+      <c r="L9">
+        <v>198930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -682,8 +779,17 @@
       <c r="I10">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>103.93</v>
+      </c>
+      <c r="L10">
+        <v>528333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -711,8 +817,17 @@
       <c r="I11">
         <v>12.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>103.48</v>
+      </c>
+      <c r="L11">
+        <v>426244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -740,8 +855,17 @@
       <c r="I12">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>101.81</v>
+      </c>
+      <c r="L12">
+        <v>290439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -768,6 +892,15 @@
       </c>
       <c r="I13">
         <v>-2.16</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>100.87</v>
+      </c>
+      <c r="L13">
+        <v>201767</v>
       </c>
     </row>
   </sheetData>
